--- a/TestData/ParaBank_LoginData.xlsx
+++ b/TestData/ParaBank_LoginData.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A2BC4363-984C-4910-AF0D-9CCAD5755783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces2025\SeleniumWebdriver\Banking-ParaBank\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC5EF6-6E94-4430-9B52-BD8BE1D666CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -11,26 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -41,40 +36,28 @@
     <t>res</t>
   </si>
   <si>
-    <t>lakshmi@yahoo.com</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>laksh@yahoo.com</t>
-  </si>
-  <si>
-    <t>Laxmi</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
-    <t>laks@yahoo.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
-    <t>abc123@gmail.com</t>
-  </si>
-  <si>
-    <t>mane2155@gmail.com</t>
-  </si>
-  <si>
-    <t>Mane@123</t>
+    <t>john</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>johndoe1751057484588</t>
+  </si>
+  <si>
+    <t>tushar123</t>
   </si>
 </sst>
 </file>
@@ -105,7 +88,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="16"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -155,18 +137,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,17 +463,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="2" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
@@ -509,81 +487,60 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
-    <hyperlink ref="A2" r:id="rId8" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/ParaBank_LoginData.xlsx
+++ b/TestData/ParaBank_LoginData.xlsx
@@ -1,14 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces2025\SeleniumWebdriver\Banking-ParaBank\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AC5EF6-6E94-4430-9B52-BD8BE1D666CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2C586A05-C39F-4BAF-810A-35E7D94539B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -16,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,10 +50,10 @@
     <t>johndoe</t>
   </si>
   <si>
-    <t>johndoe1751057484588</t>
-  </si>
-  <si>
     <t>tushar123</t>
+  </si>
+  <si>
+    <t>jhon123</t>
   </si>
 </sst>
 </file>
@@ -466,7 +462,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +495,7 @@
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -521,7 +517,7 @@
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -540,7 +536,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="jhon@123" xr:uid="{4EAFE022-38F7-42B8-B3A9-CDD7D2BB3E03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>